--- a/Modelo_Lógico_SPMedicalGroup.xlsx
+++ b/Modelo_Lógico_SPMedicalGroup.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CLÍNICA</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Endereço</t>
   </si>
   <si>
-    <t>Hora de funcionamento</t>
-  </si>
-  <si>
     <t>SP Medical Group</t>
   </si>
   <si>
@@ -75,13 +72,241 @@
   </si>
   <si>
     <t>ESPECIALIDADE</t>
+  </si>
+  <si>
+    <t>Acupuntura</t>
+  </si>
+  <si>
+    <t>Anestesiologia</t>
+  </si>
+  <si>
+    <t>Angiologia</t>
+  </si>
+  <si>
+    <t>Cardiologia</t>
+  </si>
+  <si>
+    <t>Cirurgia Cardiovascular</t>
+  </si>
+  <si>
+    <t>Cirurgia da Mão</t>
+  </si>
+  <si>
+    <t>Cirurgia do Aparelho Digestivo</t>
+  </si>
+  <si>
+    <t>Cirurgia Geral</t>
+  </si>
+  <si>
+    <t>Cirurgia Pediátrica</t>
+  </si>
+  <si>
+    <t>Cirurgia Plástica</t>
+  </si>
+  <si>
+    <t>Cirurgia Torácica</t>
+  </si>
+  <si>
+    <t>Cirurgia Vascular</t>
+  </si>
+  <si>
+    <t>Dermatologia</t>
+  </si>
+  <si>
+    <t>Radioterapia</t>
+  </si>
+  <si>
+    <t>Urologia</t>
+  </si>
+  <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>Psiquiatria</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>Médico</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Horário de funcionamento</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Henrique</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>11 3456-7654</t>
+  </si>
+  <si>
+    <t>11 98765-6543</t>
+  </si>
+  <si>
+    <t>11 97208-4453</t>
+  </si>
+  <si>
+    <t>11 3456-6543</t>
+  </si>
+  <si>
+    <t>11 7656-6377</t>
+  </si>
+  <si>
+    <t>11 95436-8769</t>
+  </si>
+  <si>
+    <t>ligia@gmail.com</t>
+  </si>
+  <si>
+    <t>alexandre@gmail.com</t>
+  </si>
+  <si>
+    <t>fernando@gmail.com</t>
+  </si>
+  <si>
+    <t>henrique@gmail.com</t>
+  </si>
+  <si>
+    <t>joao@hotmail.com</t>
+  </si>
+  <si>
+    <t>bruno@gmail.com</t>
+  </si>
+  <si>
+    <t>mariana@outlook.com</t>
+  </si>
+  <si>
+    <t>AGENDAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Dt Agendamento / Hora</t>
+  </si>
+  <si>
+    <t>86.400.902/0001-30</t>
+  </si>
+  <si>
+    <t>Clinica Porssale</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>ID_Situação</t>
+  </si>
+  <si>
+    <t>Agendada</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
+    <t>Concluida</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>A paciente está otima.</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Concluída</t>
+  </si>
+  <si>
+    <t>MÉDICO</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>ID_Especialidade</t>
+  </si>
+  <si>
+    <t>ID_Usuário</t>
+  </si>
+  <si>
+    <t>PACIENTES</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>Dt Nascimento</t>
+  </si>
+  <si>
+    <t>43522543-5</t>
+  </si>
+  <si>
+    <t>32654345-7</t>
+  </si>
+  <si>
+    <t>54636525-3</t>
+  </si>
+  <si>
+    <t>Rua Matiolly, 6</t>
+  </si>
+  <si>
+    <t>Rua Oscar Freire, 9</t>
+  </si>
+  <si>
+    <t>Rua Lancelloti, 3</t>
+  </si>
+  <si>
+    <t>Lígia</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Layla</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>SITUAÇÃO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +320,48 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -117,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -125,17 +392,181 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,111 +851,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I15"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="4.21875" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="19"/>
+      <c r="I1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="N1" s="32"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="I2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="32"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="I4" s="6">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="I6" s="6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="6">
+        <v>6</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="6">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="6">
+        <v>9</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="I12" s="6">
+        <v>10</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="6">
+        <v>11</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="6">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="6">
+        <v>13</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="6">
+        <v>3</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="6">
+        <v>14</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="I17" s="6">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="37"/>
+      <c r="I18" s="6">
+        <v>16</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="I19" s="6">
+        <v>17</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="29">
+        <v>43534</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="29">
+        <v>43549</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="29">
+        <v>43506</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="I22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="6">
+        <v>476567</v>
+      </c>
+      <c r="L24" s="6">
+        <v>13</v>
+      </c>
+      <c r="M24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="6">
+        <v>2</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="6">
+        <v>876543</v>
+      </c>
+      <c r="L25" s="6">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="M25" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="6">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="D26" s="16">
+        <v>73556944057</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="33">
+        <v>30602</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="6">
+        <v>987654</v>
+      </c>
+      <c r="L26" s="6">
+        <v>17</v>
+      </c>
+      <c r="M26" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H15" s="2" t="s">
-        <v>1</v>
+      <c r="B27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="6">
+        <v>6</v>
+      </c>
+      <c r="D27" s="16">
+        <v>16839338002</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="33">
+        <v>37095</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="6">
+        <v>7</v>
+      </c>
+      <c r="D28" s="16">
+        <v>14332654765</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="33">
+        <v>28773</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D14" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>